--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rgma-Neo1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rgma-Neo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Neo1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.62597459145113</v>
+        <v>1.875250666666667</v>
       </c>
       <c r="H2">
-        <v>1.62597459145113</v>
+        <v>5.625752</v>
       </c>
       <c r="I2">
-        <v>0.04886504286613731</v>
+        <v>0.05374350189992753</v>
       </c>
       <c r="J2">
-        <v>0.04886504286613731</v>
+        <v>0.06468869298392142</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.82183324110304</v>
+        <v>3.987923333333333</v>
       </c>
       <c r="N2">
-        <v>3.82183324110304</v>
+        <v>11.96377</v>
       </c>
       <c r="O2">
-        <v>0.05626203830071427</v>
+        <v>0.05644583114423032</v>
       </c>
       <c r="P2">
-        <v>0.05626203830071427</v>
+        <v>0.05986064110798311</v>
       </c>
       <c r="Q2">
-        <v>6.214203742796863</v>
+        <v>7.478355889448889</v>
       </c>
       <c r="R2">
-        <v>6.214203742796863</v>
+        <v>67.30520300504</v>
       </c>
       <c r="S2">
-        <v>0.002749246913300662</v>
+        <v>0.003033596633342931</v>
       </c>
       <c r="T2">
-        <v>0.002749246913300662</v>
+        <v>0.003872306634455026</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.62597459145113</v>
+        <v>1.875250666666667</v>
       </c>
       <c r="H3">
-        <v>1.62597459145113</v>
+        <v>5.625752</v>
       </c>
       <c r="I3">
-        <v>0.04886504286613731</v>
+        <v>0.05374350189992753</v>
       </c>
       <c r="J3">
-        <v>0.04886504286613731</v>
+        <v>0.06468869298392142</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.817923265941</v>
+        <v>54.09996900000001</v>
       </c>
       <c r="N3">
-        <v>51.817923265941</v>
+        <v>162.299907</v>
       </c>
       <c r="O3">
-        <v>0.7628229175719926</v>
+        <v>0.7657413294677419</v>
       </c>
       <c r="P3">
-        <v>0.7628229175719926</v>
+        <v>0.812066471086124</v>
       </c>
       <c r="Q3">
-        <v>84.25462661218442</v>
+        <v>101.451002933896</v>
       </c>
       <c r="R3">
-        <v>84.25462661218442</v>
+        <v>913.0590264050642</v>
       </c>
       <c r="S3">
-        <v>0.03727537456642735</v>
+        <v>0.04115362059510262</v>
       </c>
       <c r="T3">
-        <v>0.03727537456642735</v>
+        <v>0.05253151863062677</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.62597459145113</v>
+        <v>1.875250666666667</v>
       </c>
       <c r="H4">
-        <v>1.62597459145113</v>
+        <v>5.625752</v>
       </c>
       <c r="I4">
-        <v>0.04886504286613731</v>
+        <v>0.05374350189992753</v>
       </c>
       <c r="J4">
-        <v>0.04886504286613731</v>
+        <v>0.06468869298392142</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.253021148032491</v>
+        <v>0.25851</v>
       </c>
       <c r="N4">
-        <v>0.253021148032491</v>
+        <v>0.7755299999999999</v>
       </c>
       <c r="O4">
-        <v>0.003724779346308193</v>
+        <v>0.003659000083358752</v>
       </c>
       <c r="P4">
-        <v>0.003724779346308193</v>
+        <v>0.003880359033855895</v>
       </c>
       <c r="Q4">
-        <v>0.4114059578006254</v>
+        <v>0.48477104984</v>
       </c>
       <c r="R4">
-        <v>0.4114059578006254</v>
+        <v>4.36293944856</v>
       </c>
       <c r="S4">
-        <v>0.0001820115024242528</v>
+        <v>0.0001966474779318261</v>
       </c>
       <c r="T4">
-        <v>0.0001820115024242528</v>
+        <v>0.00025101535420849</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.62597459145113</v>
+        <v>1.875250666666667</v>
       </c>
       <c r="H5">
-        <v>1.62597459145113</v>
+        <v>5.625752</v>
       </c>
       <c r="I5">
-        <v>0.04886504286613731</v>
+        <v>0.05374350189992753</v>
       </c>
       <c r="J5">
-        <v>0.04886504286613731</v>
+        <v>0.06468869298392142</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>12.0363866008605</v>
+        <v>0.213071</v>
       </c>
       <c r="N5">
-        <v>12.0363866008605</v>
+        <v>0.639213</v>
       </c>
       <c r="O5">
-        <v>0.1771902647809849</v>
+        <v>0.003015847768988947</v>
       </c>
       <c r="P5">
-        <v>0.1771902647809849</v>
+        <v>0.003198297859667748</v>
       </c>
       <c r="Q5">
-        <v>19.57085878588201</v>
+        <v>0.3995615347973334</v>
       </c>
       <c r="R5">
-        <v>19.57085878588201</v>
+        <v>3.596053813176</v>
       </c>
       <c r="S5">
-        <v>0.008658409883985049</v>
+        <v>0.0001620822203025497</v>
       </c>
       <c r="T5">
-        <v>0.008658409883985049</v>
+        <v>0.00020689370831518</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.1513728704436</v>
+        <v>1.875250666666667</v>
       </c>
       <c r="H6">
-        <v>14.1513728704436</v>
+        <v>5.625752</v>
       </c>
       <c r="I6">
-        <v>0.425287975325476</v>
+        <v>0.05374350189992753</v>
       </c>
       <c r="J6">
-        <v>0.425287975325476</v>
+        <v>0.06468869298392142</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.82183324110304</v>
+        <v>12.090976</v>
       </c>
       <c r="N6">
-        <v>3.82183324110304</v>
+        <v>24.181952</v>
       </c>
       <c r="O6">
-        <v>0.05626203830071427</v>
+        <v>0.1711379915356802</v>
       </c>
       <c r="P6">
-        <v>0.05626203830071427</v>
+        <v>0.1209942309123691</v>
       </c>
       <c r="Q6">
-        <v>54.08418724350509</v>
+        <v>22.67361080465067</v>
       </c>
       <c r="R6">
-        <v>54.08418724350509</v>
+        <v>136.041664827904</v>
       </c>
       <c r="S6">
-        <v>0.02392756835659516</v>
+        <v>0.009197554973247609</v>
       </c>
       <c r="T6">
-        <v>0.02392756835659516</v>
+        <v>0.007826958656315943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.1513728704436</v>
+        <v>14.73449133333333</v>
       </c>
       <c r="H7">
-        <v>14.1513728704436</v>
+        <v>44.203474</v>
       </c>
       <c r="I7">
-        <v>0.425287975325476</v>
+        <v>0.4222812326071958</v>
       </c>
       <c r="J7">
-        <v>0.425287975325476</v>
+        <v>0.5082813743671517</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>51.817923265941</v>
+        <v>3.987923333333333</v>
       </c>
       <c r="N7">
-        <v>51.817923265941</v>
+        <v>11.96377</v>
       </c>
       <c r="O7">
-        <v>0.7628229175719926</v>
+        <v>0.05644583114423032</v>
       </c>
       <c r="P7">
-        <v>0.7628229175719926</v>
+        <v>0.05986064110798311</v>
       </c>
       <c r="Q7">
-        <v>733.2947535083657</v>
+        <v>58.76002179299778</v>
       </c>
       <c r="R7">
-        <v>733.2947535083657</v>
+        <v>528.84019613698</v>
       </c>
       <c r="S7">
-        <v>0.3244194141460652</v>
+        <v>0.02383601515112322</v>
       </c>
       <c r="T7">
-        <v>0.3244194141460652</v>
+        <v>0.03042604893286448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.1513728704436</v>
+        <v>14.73449133333333</v>
       </c>
       <c r="H8">
-        <v>14.1513728704436</v>
+        <v>44.203474</v>
       </c>
       <c r="I8">
-        <v>0.425287975325476</v>
+        <v>0.4222812326071958</v>
       </c>
       <c r="J8">
-        <v>0.425287975325476</v>
+        <v>0.5082813743671517</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.253021148032491</v>
+        <v>54.09996900000001</v>
       </c>
       <c r="N8">
-        <v>0.253021148032491</v>
+        <v>162.299907</v>
       </c>
       <c r="O8">
-        <v>0.003724779346308193</v>
+        <v>0.7657413294677419</v>
       </c>
       <c r="P8">
-        <v>0.003724779346308193</v>
+        <v>0.812066471086124</v>
       </c>
       <c r="Q8">
-        <v>3.580596609915487</v>
+        <v>797.1355243641021</v>
       </c>
       <c r="R8">
-        <v>3.580596609915487</v>
+        <v>7174.219719276919</v>
       </c>
       <c r="S8">
-        <v>0.001584103866725562</v>
+        <v>0.3233581924659109</v>
       </c>
       <c r="T8">
-        <v>0.001584103866725562</v>
+        <v>0.412758262001138</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.1513728704436</v>
+        <v>14.73449133333333</v>
       </c>
       <c r="H9">
-        <v>14.1513728704436</v>
+        <v>44.203474</v>
       </c>
       <c r="I9">
-        <v>0.425287975325476</v>
+        <v>0.4222812326071958</v>
       </c>
       <c r="J9">
-        <v>0.425287975325476</v>
+        <v>0.5082813743671517</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0363866008605</v>
+        <v>0.25851</v>
       </c>
       <c r="N9">
-        <v>12.0363866008605</v>
+        <v>0.7755299999999999</v>
       </c>
       <c r="O9">
-        <v>0.1771902647809849</v>
+        <v>0.003659000083358752</v>
       </c>
       <c r="P9">
-        <v>0.1771902647809849</v>
+        <v>0.003880359033855895</v>
       </c>
       <c r="Q9">
-        <v>170.3313948015881</v>
+        <v>3.809013354579999</v>
       </c>
       <c r="R9">
-        <v>170.3313948015881</v>
+        <v>34.28112019122</v>
       </c>
       <c r="S9">
-        <v>0.07535688895609008</v>
+        <v>0.001545127065310566</v>
       </c>
       <c r="T9">
-        <v>0.07535688895609008</v>
+        <v>0.001972314222766267</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.4974538291915</v>
+        <v>14.73449133333333</v>
       </c>
       <c r="H10">
-        <v>17.4974538291915</v>
+        <v>44.203474</v>
       </c>
       <c r="I10">
-        <v>0.5258469818083865</v>
+        <v>0.4222812326071958</v>
       </c>
       <c r="J10">
-        <v>0.5258469818083865</v>
+        <v>0.5082813743671517</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.82183324110304</v>
+        <v>0.213071</v>
       </c>
       <c r="N10">
-        <v>3.82183324110304</v>
+        <v>0.639213</v>
       </c>
       <c r="O10">
-        <v>0.05626203830071427</v>
+        <v>0.003015847768988947</v>
       </c>
       <c r="P10">
-        <v>0.05626203830071427</v>
+        <v>0.003198297859667748</v>
       </c>
       <c r="Q10">
-        <v>66.87235067906975</v>
+        <v>3.139492802884666</v>
       </c>
       <c r="R10">
-        <v>66.87235067906975</v>
+        <v>28.255435225962</v>
       </c>
       <c r="S10">
-        <v>0.02958522303081844</v>
+        <v>0.001273535913244314</v>
       </c>
       <c r="T10">
-        <v>0.02958522303081844</v>
+        <v>0.001625635231747443</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.4974538291915</v>
+        <v>14.73449133333333</v>
       </c>
       <c r="H11">
-        <v>17.4974538291915</v>
+        <v>44.203474</v>
       </c>
       <c r="I11">
-        <v>0.5258469818083865</v>
+        <v>0.4222812326071958</v>
       </c>
       <c r="J11">
-        <v>0.5258469818083865</v>
+        <v>0.5082813743671517</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.817923265941</v>
+        <v>12.090976</v>
       </c>
       <c r="N11">
-        <v>51.817923265941</v>
+        <v>24.181952</v>
       </c>
       <c r="O11">
-        <v>0.7628229175719926</v>
+        <v>0.1711379915356802</v>
       </c>
       <c r="P11">
-        <v>0.7628229175719926</v>
+        <v>0.1209942309123691</v>
       </c>
       <c r="Q11">
-        <v>906.6817198703906</v>
+        <v>178.1543810835414</v>
       </c>
       <c r="R11">
-        <v>906.6817198703906</v>
+        <v>1068.926286501248</v>
       </c>
       <c r="S11">
-        <v>0.4011281288594999</v>
+        <v>0.07226836201160686</v>
       </c>
       <c r="T11">
-        <v>0.4011281288594999</v>
+        <v>0.0614991139786355</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>17.4974538291915</v>
+        <v>0.23419</v>
       </c>
       <c r="H12">
-        <v>17.4974538291915</v>
+        <v>0.70257</v>
       </c>
       <c r="I12">
-        <v>0.5258469818083865</v>
+        <v>0.006711737760539761</v>
       </c>
       <c r="J12">
-        <v>0.5258469818083865</v>
+        <v>0.008078623983018389</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.253021148032491</v>
+        <v>3.987923333333333</v>
       </c>
       <c r="N12">
-        <v>0.253021148032491</v>
+        <v>11.96377</v>
       </c>
       <c r="O12">
-        <v>0.003724779346308193</v>
+        <v>0.05644583114423032</v>
       </c>
       <c r="P12">
-        <v>0.003724779346308193</v>
+        <v>0.05986064110798311</v>
       </c>
       <c r="Q12">
-        <v>4.427225855507539</v>
+        <v>0.9339317654333333</v>
       </c>
       <c r="R12">
-        <v>4.427225855507539</v>
+        <v>8.4053858889</v>
       </c>
       <c r="S12">
-        <v>0.001958663977158378</v>
+        <v>0.0003788496163157819</v>
       </c>
       <c r="T12">
-        <v>0.001958663977158378</v>
+        <v>0.0004835916108938089</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.23419</v>
+      </c>
+      <c r="H13">
+        <v>0.70257</v>
+      </c>
+      <c r="I13">
+        <v>0.006711737760539761</v>
+      </c>
+      <c r="J13">
+        <v>0.008078623983018389</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>54.09996900000001</v>
+      </c>
+      <c r="N13">
+        <v>162.299907</v>
+      </c>
+      <c r="O13">
+        <v>0.7657413294677419</v>
+      </c>
+      <c r="P13">
+        <v>0.812066471086124</v>
+      </c>
+      <c r="Q13">
+        <v>12.66967174011</v>
+      </c>
+      <c r="R13">
+        <v>114.02704566099</v>
+      </c>
+      <c r="S13">
+        <v>0.005139454995794561</v>
+      </c>
+      <c r="T13">
+        <v>0.00656037966912147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.23419</v>
+      </c>
+      <c r="H14">
+        <v>0.70257</v>
+      </c>
+      <c r="I14">
+        <v>0.006711737760539761</v>
+      </c>
+      <c r="J14">
+        <v>0.008078623983018389</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.25851</v>
+      </c>
+      <c r="N14">
+        <v>0.7755299999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.003659000083358752</v>
+      </c>
+      <c r="P14">
+        <v>0.003880359033855895</v>
+      </c>
+      <c r="Q14">
+        <v>0.06054045689999999</v>
+      </c>
+      <c r="R14">
+        <v>0.5448641121</v>
+      </c>
+      <c r="S14">
+        <v>2.455824902529707E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.13479615536303E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.23419</v>
+      </c>
+      <c r="H15">
+        <v>0.70257</v>
+      </c>
+      <c r="I15">
+        <v>0.006711737760539761</v>
+      </c>
+      <c r="J15">
+        <v>0.008078623983018389</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.213071</v>
+      </c>
+      <c r="N15">
+        <v>0.639213</v>
+      </c>
+      <c r="O15">
+        <v>0.003015847768988947</v>
+      </c>
+      <c r="P15">
+        <v>0.003198297859667748</v>
+      </c>
+      <c r="Q15">
+        <v>0.04989909749</v>
+      </c>
+      <c r="R15">
+        <v>0.4490918774100001</v>
+      </c>
+      <c r="S15">
+        <v>2.024157935116271E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.583784579394825E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.23419</v>
+      </c>
+      <c r="H16">
+        <v>0.70257</v>
+      </c>
+      <c r="I16">
+        <v>0.006711737760539761</v>
+      </c>
+      <c r="J16">
+        <v>0.008078623983018389</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.090976</v>
+      </c>
+      <c r="N16">
+        <v>24.181952</v>
+      </c>
+      <c r="O16">
+        <v>0.1711379915356802</v>
+      </c>
+      <c r="P16">
+        <v>0.1209942309123691</v>
+      </c>
+      <c r="Q16">
+        <v>2.83158566944</v>
+      </c>
+      <c r="R16">
+        <v>16.98951401664</v>
+      </c>
+      <c r="S16">
+        <v>0.001148633320052959</v>
+      </c>
+      <c r="T16">
+        <v>0.0009774668956555304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.3374053333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.012216</v>
+      </c>
+      <c r="I17">
+        <v>0.009669824144245434</v>
+      </c>
+      <c r="J17">
+        <v>0.01163914265282455</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.987923333333333</v>
+      </c>
+      <c r="N17">
+        <v>11.96377</v>
+      </c>
+      <c r="O17">
+        <v>0.05644583114423032</v>
+      </c>
+      <c r="P17">
+        <v>0.05986064110798311</v>
+      </c>
+      <c r="Q17">
+        <v>1.345546601591111</v>
+      </c>
+      <c r="R17">
+        <v>12.10991941432</v>
+      </c>
+      <c r="S17">
+        <v>0.0005458212608404791</v>
+      </c>
+      <c r="T17">
+        <v>0.0006967265411453486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.3374053333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.012216</v>
+      </c>
+      <c r="I18">
+        <v>0.009669824144245434</v>
+      </c>
+      <c r="J18">
+        <v>0.01163914265282455</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>54.09996900000001</v>
+      </c>
+      <c r="N18">
+        <v>162.299907</v>
+      </c>
+      <c r="O18">
+        <v>0.7657413294677419</v>
+      </c>
+      <c r="P18">
+        <v>0.812066471086124</v>
+      </c>
+      <c r="Q18">
+        <v>18.253618073768</v>
+      </c>
+      <c r="R18">
+        <v>164.282562663912</v>
+      </c>
+      <c r="S18">
+        <v>0.007404583995933768</v>
+      </c>
+      <c r="T18">
+        <v>0.009451757500547216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>17.4974538291915</v>
-      </c>
-      <c r="H13">
-        <v>17.4974538291915</v>
-      </c>
-      <c r="I13">
-        <v>0.5258469818083865</v>
-      </c>
-      <c r="J13">
-        <v>0.5258469818083865</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>12.0363866008605</v>
-      </c>
-      <c r="N13">
-        <v>12.0363866008605</v>
-      </c>
-      <c r="O13">
-        <v>0.1771902647809849</v>
-      </c>
-      <c r="P13">
-        <v>0.1771902647809849</v>
-      </c>
-      <c r="Q13">
-        <v>210.6061188188558</v>
-      </c>
-      <c r="R13">
-        <v>210.6061188188558</v>
-      </c>
-      <c r="S13">
-        <v>0.09317496594090977</v>
-      </c>
-      <c r="T13">
-        <v>0.09317496594090977</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.3374053333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.012216</v>
+      </c>
+      <c r="I19">
+        <v>0.009669824144245434</v>
+      </c>
+      <c r="J19">
+        <v>0.01163914265282455</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.25851</v>
+      </c>
+      <c r="N19">
+        <v>0.7755299999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.003659000083358752</v>
+      </c>
+      <c r="P19">
+        <v>0.003880359033855895</v>
+      </c>
+      <c r="Q19">
+        <v>0.08722265271999999</v>
+      </c>
+      <c r="R19">
+        <v>0.78500387448</v>
+      </c>
+      <c r="S19">
+        <v>3.538188734985851E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.516405233922519E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.3374053333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.012216</v>
+      </c>
+      <c r="I20">
+        <v>0.009669824144245434</v>
+      </c>
+      <c r="J20">
+        <v>0.01163914265282455</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.213071</v>
+      </c>
+      <c r="N20">
+        <v>0.639213</v>
+      </c>
+      <c r="O20">
+        <v>0.003015847768988947</v>
+      </c>
+      <c r="P20">
+        <v>0.003198297859667748</v>
+      </c>
+      <c r="Q20">
+        <v>0.07189129177866667</v>
+      </c>
+      <c r="R20">
+        <v>0.6470216260080001</v>
+      </c>
+      <c r="S20">
+        <v>2.916271757193805E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.722544503489634E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.3374053333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.012216</v>
+      </c>
+      <c r="I21">
+        <v>0.009669824144245434</v>
+      </c>
+      <c r="J21">
+        <v>0.01163914265282455</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.090976</v>
+      </c>
+      <c r="N21">
+        <v>24.181952</v>
+      </c>
+      <c r="O21">
+        <v>0.1711379915356802</v>
+      </c>
+      <c r="P21">
+        <v>0.1209942309123691</v>
+      </c>
+      <c r="Q21">
+        <v>4.079559787605334</v>
+      </c>
+      <c r="R21">
+        <v>24.477358725632</v>
+      </c>
+      <c r="S21">
+        <v>0.001654874282549391</v>
+      </c>
+      <c r="T21">
+        <v>0.001408269113757858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>17.7112655</v>
+      </c>
+      <c r="H22">
+        <v>35.422531</v>
+      </c>
+      <c r="I22">
+        <v>0.5075937035880914</v>
+      </c>
+      <c r="J22">
+        <v>0.4073121660130839</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.987923333333333</v>
+      </c>
+      <c r="N22">
+        <v>11.96377</v>
+      </c>
+      <c r="O22">
+        <v>0.05644583114423032</v>
+      </c>
+      <c r="P22">
+        <v>0.05986064110798311</v>
+      </c>
+      <c r="Q22">
+        <v>70.63116895031166</v>
+      </c>
+      <c r="R22">
+        <v>423.78701370187</v>
+      </c>
+      <c r="S22">
+        <v>0.0286515484826079</v>
+      </c>
+      <c r="T22">
+        <v>0.02438196738862445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>17.7112655</v>
+      </c>
+      <c r="H23">
+        <v>35.422531</v>
+      </c>
+      <c r="I23">
+        <v>0.5075937035880914</v>
+      </c>
+      <c r="J23">
+        <v>0.4073121660130839</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>54.09996900000001</v>
+      </c>
+      <c r="N23">
+        <v>162.299907</v>
+      </c>
+      <c r="O23">
+        <v>0.7657413294677419</v>
+      </c>
+      <c r="P23">
+        <v>0.812066471086124</v>
+      </c>
+      <c r="Q23">
+        <v>958.1789145007697</v>
+      </c>
+      <c r="R23">
+        <v>5749.073487004617</v>
+      </c>
+      <c r="S23">
+        <v>0.388685477415</v>
+      </c>
+      <c r="T23">
+        <v>0.3307645532846905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>17.7112655</v>
+      </c>
+      <c r="H24">
+        <v>35.422531</v>
+      </c>
+      <c r="I24">
+        <v>0.5075937035880914</v>
+      </c>
+      <c r="J24">
+        <v>0.4073121660130839</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.25851</v>
+      </c>
+      <c r="N24">
+        <v>0.7755299999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.003659000083358752</v>
+      </c>
+      <c r="P24">
+        <v>0.003880359033855895</v>
+      </c>
+      <c r="Q24">
+        <v>4.578539244404999</v>
+      </c>
+      <c r="R24">
+        <v>27.47123546643</v>
+      </c>
+      <c r="S24">
+        <v>0.001857285403741204</v>
+      </c>
+      <c r="T24">
+        <v>0.001580517442988282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>17.7112655</v>
+      </c>
+      <c r="H25">
+        <v>35.422531</v>
+      </c>
+      <c r="I25">
+        <v>0.5075937035880914</v>
+      </c>
+      <c r="J25">
+        <v>0.4073121660130839</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.213071</v>
+      </c>
+      <c r="N25">
+        <v>0.639213</v>
+      </c>
+      <c r="O25">
+        <v>0.003015847768988947</v>
+      </c>
+      <c r="P25">
+        <v>0.003198297859667748</v>
+      </c>
+      <c r="Q25">
+        <v>3.7737570513505</v>
+      </c>
+      <c r="R25">
+        <v>22.642542308103</v>
+      </c>
+      <c r="S25">
+        <v>0.001530825338518982</v>
+      </c>
+      <c r="T25">
+        <v>0.001302705628776281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>17.7112655</v>
+      </c>
+      <c r="H26">
+        <v>35.422531</v>
+      </c>
+      <c r="I26">
+        <v>0.5075937035880914</v>
+      </c>
+      <c r="J26">
+        <v>0.4073121660130839</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>12.090976</v>
+      </c>
+      <c r="N26">
+        <v>24.181952</v>
+      </c>
+      <c r="O26">
+        <v>0.1711379915356802</v>
+      </c>
+      <c r="P26">
+        <v>0.1209942309123691</v>
+      </c>
+      <c r="Q26">
+        <v>214.146486090128</v>
+      </c>
+      <c r="R26">
+        <v>856.585944360512</v>
+      </c>
+      <c r="S26">
+        <v>0.08686856694822333</v>
+      </c>
+      <c r="T26">
+        <v>0.04928242226800431</v>
       </c>
     </row>
   </sheetData>
